--- a/data/trans_camb/P20_3_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P20_3_R-Estudios-trans_camb.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,57</t>
+          <t>8,09</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>6,92</t>
+          <t>6,67</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5,84</t>
+          <t>7,34</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-15,94; 27,01</t>
+          <t>-25,2; 46,96</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,58; 18,68</t>
+          <t>-12,04; 25,03</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,64; 19,12</t>
+          <t>-12,13; 26,92</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>16,37%</t>
+          <t>25,39%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>26,64%</t>
+          <t>20,56%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>21,74%</t>
+          <t>22,82%</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-50,12; 128,45</t>
+          <t>-69,78; 303,21</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-15,23; 90,69</t>
+          <t>-28,32; 108,62</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-20,41; 85,54</t>
+          <t>-32,73; 120,75</t>
         </is>
       </c>
     </row>
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-3,17</t>
+          <t>-2,14</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,24</t>
+          <t>-0,18</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-2,78</t>
+          <t>-1,09</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-10,39; 3,78</t>
+          <t>-11,84; 7,43</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-10,25; 5,67</t>
+          <t>-10,08; 9,39</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,73; 2,74</t>
+          <t>-8,2; 6,43</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-15,78%</t>
+          <t>-9,67%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-6,77%</t>
+          <t>-0,58%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-10,33%</t>
+          <t>-4,11%</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-41,48; 22,84</t>
+          <t>-44,47; 44,29</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-27,97; 19,09</t>
+          <t>-27,56; 36,18</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-28,9; 11,03</t>
+          <t>-26,83; 29,34</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-3,06</t>
+          <t>-5,52</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,07</t>
+          <t>-0,71</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,44</t>
+          <t>-2,75</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-9,56; 4,09</t>
+          <t>-14,7; 3,4</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-8,17; 8,03</t>
+          <t>-9,97; 9,06</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,87; 3,4</t>
+          <t>-9,88; 3,47</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-20,11%</t>
+          <t>-33,31%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-0,24%</t>
+          <t>-2,67%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-6,45%</t>
+          <t>-12,46%</t>
         </is>
       </c>
     </row>
@@ -817,24 +817,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-52,63; 38,2</t>
+          <t>-65,87; 32,77</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-25,68; 32,82</t>
+          <t>-31,4; 42,45</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-27,84; 17,22</t>
+          <t>-38,99; 17,92</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,72</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,79</t>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-7,04; 4,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,01; 5,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,9; 2,91</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-8,69%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,48%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-3,12%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -913,25 +913,129 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-31,95; 28,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-15,44; 20,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-18,1; 12,19</t>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-1,88</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0,51</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-0,58</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-9,74; 7,42</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-6,33; 6,68</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-5,51; 5,11</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-8,81%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>1,74%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-2,26%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-38,55; 44,22</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-19,37; 25,87</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-19,45; 23,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>

--- a/data/trans_camb/P20_3_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P20_3_R-Estudios-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,287 +563,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>8,09</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>6,67</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>7,34</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>6.319437331547483</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>5.867946326830603</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>6.077870788209888</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-25,2; 46,96</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-12,04; 25,03</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-12,13; 26,92</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-26.91842879176293</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-12.37740107707266</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-13.03368721424088</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>25,39%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>20,56%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>22,82%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>40.64122178647251</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>23.93103134847512</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>24.19930904997085</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-69,78; 303,21</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-28,32; 108,62</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-32,73; 120,75</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>0.1982639514440307</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>0.1809257669624452</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.1889200746444033</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Secundaria o FP grado sup</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-2,14</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-0,18</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-1,09</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>-0.7199813930457557</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>-0.3094873657028473</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.372934832938281</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-11,84; 7,43</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-10,08; 9,39</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-8,2; 6,43</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>2.518402202027375</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>1.009117413657081</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>1.011129733401859</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-9,67%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-0,58%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-4,11%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>-2.123673659587691</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>2.474745148679008</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.3435730912090984</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-44,47; 44,29</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-27,56; 36,18</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-26,83; 29,34</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-11.51379780954279</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-7.541533073990878</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-7.061613450582474</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-5,52</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-0,71</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-2,75</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>7.773100541063292</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>12.82982875581816</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>8.2403402722348</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-14,7; 3,4</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-9,97; 9,06</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-9,88; 3,47</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>-0.09606129550573571</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>0.0803446133300756</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>0.01291820378726039</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-33,31%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-2,67%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-12,46%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>-0.4422375651530314</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>-0.2090260082275262</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.2400270751165042</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-65,87; 32,77</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-31,4; 42,45</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-38,99; 17,92</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>0.4403184096446921</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>0.5086150465862634</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.3533133793209876</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -842,202 +775,221 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>-4.311000934072301</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>-1.00458396296545</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-2.618320699925722</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-13.31173967514327</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-9.982632349755127</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-9.430504797808096</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>6.273685178339179</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>8.949108923647497</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>4.283646069637816</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>-0.2603718052190486</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>-0.03789966407037795</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>-0.1184779307481213</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A20" s="1" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>-1,88</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>0,51</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>-0,58</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>-0.6474142368874169</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>-0.3228260660622215</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.3795317377523945</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-9,74; 7,42</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-6,33; 6,68</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-5,51; 5,11</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>0.5940529641055547</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>0.4023040377902373</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.2176134180740426</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n"/>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>-8,81%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>1,74%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-2,26%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>-1.850165981861082</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>1.525601479159711</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>-0.07383674587866373</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-38,55; 44,22</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>-19,37; 25,87</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>-19,45; 23,0</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-9.76192744151702</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-5.797142456072256</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-5.090894250947999</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>6.680421063242088</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>7.676355142776085</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>5.514659536396731</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>-0.08668864338801426</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>0.05216873197039717</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>-0.002887905101925622</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>-0.3879965417707508</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>-0.1769800725667523</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>-0.1753966878196445</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>0.3824511312448275</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>0.3007574099883566</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>0.2451860370953001</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A20:A23"/>
+  <mergeCells count="5">
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A10:A15"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
